--- a/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.462408432007546</v>
+        <v>1.562703355407845</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.437150314583224</v>
+        <v>3.40211219193615</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.105783121145893</v>
+        <v>-0.6768287443847438</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.545234550100727</v>
+        <v>2.194511300223062</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09662858266696614</v>
+        <v>0.1052785124898918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2644270912459899</v>
+        <v>0.2714269104736814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1190809625271145</v>
+        <v>-0.07895094503742488</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.04634352614227032</v>
+        <v>0.1776925535655808</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.12006862173491</v>
+        <v>10.43717156547017</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.51778858179653</v>
+        <v>12.88800074411134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.004648568073944</v>
+        <v>7.121412312318168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.43810312660286</v>
+        <v>14.85202730301435</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.12320988717412</v>
+        <v>1.158974533804429</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.507153799893512</v>
+        <v>1.602839390354602</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.28294870178445</v>
+        <v>1.375827881287783</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.146955202275415</v>
+        <v>5.152673277328177</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9763157098363352</v>
+        <v>0.8987919369104033</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.17036163876113</v>
+        <v>1.922274974644498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.153854771246721</v>
+        <v>-0.7596630690142008</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.102571216317668</v>
+        <v>-2.937671564724113</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05633802553426142</v>
+        <v>0.05389652588348268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06835096209577865</v>
+        <v>0.09719578134774538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1039401140008377</v>
+        <v>-0.07687105627526185</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2547767959200693</v>
+        <v>-0.239239393465567</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.197749088677872</v>
+        <v>9.219767541316186</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.30403882706559</v>
+        <v>10.74063371170656</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.389281042190283</v>
+        <v>6.586465545300927</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.42798171503894</v>
+        <v>6.297666412069362</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7415398181593377</v>
+        <v>0.7213372397099534</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8541727126151822</v>
+        <v>0.8749018014416509</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8468349606390331</v>
+        <v>0.8995486974308945</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8979173682557051</v>
+        <v>0.8798306865239601</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4362982472689249</v>
+        <v>-0.07096214699401791</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.820216729810532</v>
+        <v>2.75204838517499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4731924417130213</v>
+        <v>-0.3585304689664455</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.263278324533341</v>
+        <v>1.769525225836969</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.02656984496553909</v>
+        <v>-0.01409521936921744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2080901331509946</v>
+        <v>0.1341209946847139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.0617979023156606</v>
+        <v>-0.04746698876493783</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1743845221299015</v>
+        <v>0.1441768582240288</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.482076306310409</v>
+        <v>8.057003163264747</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.71135896655617</v>
+        <v>12.30762803926701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.461658257320183</v>
+        <v>6.041636636212046</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.60702499537688</v>
+        <v>9.320076583468474</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5434412054047626</v>
+        <v>0.4997463802036722</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8877719323348136</v>
+        <v>0.8292376305258601</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8178493662382892</v>
+        <v>0.7611449826905379</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.158948862130683</v>
+        <v>1.066590785652525</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>1.205409873825936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.893064325940166</v>
+        <v>4.893064325940172</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.260129479568927</v>
@@ -949,7 +949,7 @@
         <v>0.08339240223694518</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3312528408188167</v>
+        <v>0.331252840818817</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.1153978112815159</v>
+        <v>-0.2138472692329111</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.305447116166941</v>
+        <v>8.310385294289709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.257083304184701</v>
+        <v>-3.135936385140889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.226341044763611</v>
+        <v>1.48769659663593</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.008965972341880268</v>
+        <v>-0.01025879463044491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4056960049796745</v>
+        <v>0.4531956229619786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1970246656672553</v>
+        <v>-0.1821843207254331</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07286447277869328</v>
+        <v>0.08202949405415319</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>9.941104325806824</v>
+        <v>9.921122928090345</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.84159799081917</v>
+        <v>18.02349071089888</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.599307302033315</v>
+        <v>5.086886499881375</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.43756947911592</v>
+        <v>8.321440924807053</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6246063531919425</v>
+        <v>0.6257983452368333</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.380398739560237</v>
+        <v>1.322713489822933</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3735138475763255</v>
+        <v>0.4276542642979345</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6717829429130671</v>
+        <v>0.6499355609858504</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.842423929978494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.350005104931818</v>
+        <v>5.350005104931816</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2721272080541307</v>
@@ -1049,7 +1049,7 @@
         <v>0.7073630358425407</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2997289741027789</v>
+        <v>0.2997289741027787</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8917757692796957</v>
+        <v>0.05770692258405658</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.212790049782884</v>
+        <v>2.664493488954517</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.755919524503375</v>
+        <v>3.326036576256587</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.191071469825816</v>
+        <v>1.349860346209773</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.036068586627212</v>
+        <v>0.001189710260667973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09043000489886677</v>
+        <v>0.1139378127958161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2655688870460883</v>
+        <v>0.2300578589507381</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.06339052212753252</v>
+        <v>0.06442356647096795</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.39080118849598</v>
+        <v>11.57195345472574</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.23565185735364</v>
+        <v>14.59314521474334</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.32708207054803</v>
+        <v>13.54796458504079</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.062974045039679</v>
+        <v>9.077422753573188</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6252830901424024</v>
+        <v>0.630304526568548</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.8404374071392308</v>
+        <v>0.8259074780865538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.397849088213276</v>
+        <v>1.343736196893409</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5769526924613086</v>
+        <v>0.590012281589569</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.072069811770716</v>
+        <v>3.704617450598112</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.146462590114086</v>
+        <v>5.955691324882632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.906362567538497</v>
+        <v>1.868465492093243</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.775194888930201</v>
+        <v>1.407324389086835</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1830677881318647</v>
+        <v>0.1738857625426349</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3194291005384303</v>
+        <v>0.3074944940045473</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1138847740605194</v>
+        <v>0.09393080837053421</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.08426618331908706</v>
+        <v>0.07575701530855074</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.90381614640114</v>
+        <v>16.21100937721794</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.90318733079184</v>
+        <v>19.44932709832958</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>12.94307740416376</v>
+        <v>13.53353799824909</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9.497401988306759</v>
+        <v>9.370749569990886</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.105596229843785</v>
+        <v>1.11348661739474</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.575707417990068</v>
+        <v>1.540936539770252</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.13601593673699</v>
+        <v>1.128782698603285</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7021006437612086</v>
+        <v>0.706615672788548</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.200836413944529</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8.911601979161757</v>
+        <v>8.911601979161754</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0043739742629161</v>
@@ -1249,7 +1249,7 @@
         <v>0.4925229391157327</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4268008666236098</v>
+        <v>0.4268008666236097</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.699445975380072</v>
+        <v>-8.168716959474164</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.708846602179158</v>
+        <v>5.570959715835761</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.482005327005414</v>
+        <v>2.493879866062513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.036451744480896</v>
+        <v>3.935186354831413</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2602765965490375</v>
+        <v>-0.2851205809748406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2064803095161615</v>
+        <v>0.2090169134695938</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1138052893535602</v>
+        <v>0.1061973737873757</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1714418841641418</v>
+        <v>0.1670681513848383</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.674036202900661</v>
+        <v>7.361580587442374</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>20.87831102684408</v>
+        <v>21.33612607460958</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.15029649579402</v>
+        <v>15.63592833735938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.91379985674412</v>
+        <v>13.93730455077604</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3572057487200964</v>
+        <v>0.3818383305479961</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.149621476925411</v>
+        <v>1.185225472177945</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.070116520955708</v>
+        <v>0.9967135284788655</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.7830548518444962</v>
+        <v>0.8268587974976819</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.641148867559894</v>
+        <v>3.386726263165873</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>8.158070493278437</v>
+        <v>7.871091304695216</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.344217312852928</v>
+        <v>3.414612883190554</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4.394570739569288</v>
+        <v>4.577159707910472</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2036186327714969</v>
+        <v>0.1920116794942026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4892913070925209</v>
+        <v>0.4644659486149837</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2616775076607709</v>
+        <v>0.2754004103697216</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3119096832448082</v>
+        <v>0.3135724831877394</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.544641214668904</v>
+        <v>7.449192173842737</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.90859137238809</v>
+        <v>12.00881750378374</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.784624807782437</v>
+        <v>6.787829221484796</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7.529920156311502</v>
+        <v>7.905846968487522</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4702573402501553</v>
+        <v>0.4718318908488795</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.809482345638933</v>
+        <v>0.8068077539044339</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6254234854025625</v>
+        <v>0.635016110138806</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6141104329392291</v>
+        <v>0.6341688622038283</v>
       </c>
     </row>
     <row r="28">
